--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\lossd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D39E98-08A3-4E24-9F73-1CF97FE957F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8026457-2446-4E1A-8D25-8D55F448BE7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,24 +207,6 @@
     </r>
   </si>
   <si>
-    <t>FDS 02, due 1/31</t>
-  </si>
-  <si>
-    <t>FDS 03, due 2/7</t>
-  </si>
-  <si>
-    <t>FDS 04, due 2/14</t>
-  </si>
-  <si>
-    <t>FDS 05, due 2/21</t>
-  </si>
-  <si>
-    <t>FDS 06, due 2/28</t>
-  </si>
-  <si>
-    <t>FDS 07, due 3/7</t>
-  </si>
-  <si>
     <t>[college farm visit]</t>
   </si>
   <si>
@@ -238,6 +220,24 @@
   </si>
   <si>
     <t>PR3</t>
+  </si>
+  <si>
+    <t>FDS2, due 1/31</t>
+  </si>
+  <si>
+    <t>FDS3, due 2/7</t>
+  </si>
+  <si>
+    <t>FDS4, due 2/14</t>
+  </si>
+  <si>
+    <t>FDS5, due 2/21</t>
+  </si>
+  <si>
+    <t>FDS6, due 2/28</t>
+  </si>
+  <si>
+    <t>FDS7, due 3/7</t>
   </si>
 </sst>
 </file>
@@ -665,8 +665,8 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +725,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -740,14 +740,14 @@
         <v>44594</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="21" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -772,7 +772,7 @@
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="21" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="13"/>
       <c r="H7" s="21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -927,14 +927,14 @@
         <v>44650</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -976,7 +976,7 @@
       <c r="E14" s="23"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -1016,7 +1016,7 @@
       <c r="E16" s="23"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H16" s="3"/>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\lossd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8026457-2446-4E1A-8D25-8D55F448BE7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E660FBF6-CC95-4062-8550-061242504E1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,23 +97,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">5-15 report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(due by the start of class)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Moodle posting
 </t>
     </r>
@@ -239,12 +222,48 @@
   <si>
     <t>FDS7, due 3/7</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Epic progress report</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(due by the start of class)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +294,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -666,7 +693,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,16 +721,16 @@
         <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -720,12 +747,12 @@
         <v>11</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -740,14 +767,14 @@
         <v>44594</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -765,14 +792,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -788,12 +815,12 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -811,14 +838,14 @@
         <v>13</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -834,12 +861,12 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="13"/>
       <c r="H7" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -858,7 +885,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="18" t="s">
@@ -880,7 +907,7 @@
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="10">
         <v>44642</v>
@@ -910,7 +937,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="3"/>
@@ -927,14 +954,14 @@
         <v>44650</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -956,7 +983,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="3"/>
@@ -976,7 +1003,7 @@
       <c r="E14" s="23"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -996,7 +1023,7 @@
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="3"/>
@@ -1016,7 +1043,7 @@
       <c r="E16" s="23"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -1044,13 +1071,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2">
         <v>44698</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\lossd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E660FBF6-CC95-4062-8550-061242504E1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2818D14-2AC1-4287-A381-AB0608C6743D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,15 +194,6 @@
   </si>
   <si>
     <t>[Matt Steiman visit]</t>
-  </si>
-  <si>
-    <t>PR1</t>
-  </si>
-  <si>
-    <t>PR2</t>
-  </si>
-  <si>
-    <t>PR3</t>
   </si>
   <si>
     <t>FDS2, due 1/31</t>
@@ -257,6 +248,15 @@
       </rPr>
       <t>(due by the start of class)</t>
     </r>
+  </si>
+  <si>
+    <t>EPR1</t>
+  </si>
+  <si>
+    <t>EPR2</t>
+  </si>
+  <si>
+    <t>EPR3</t>
   </si>
 </sst>
 </file>
@@ -693,7 +693,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +727,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>37</v>
@@ -752,7 +752,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -774,7 +774,7 @@
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="13"/>
       <c r="H7" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -1003,7 +1003,7 @@
       <c r="E14" s="23"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -1043,7 +1043,7 @@
       <c r="E16" s="23"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H16" s="3"/>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\lossd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2818D14-2AC1-4287-A381-AB0608C6743D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F9DBD2-78A5-430C-8369-5229DB346F9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>breaking user stories into tasks</t>
   </si>
   <si>
-    <t>project work</t>
-  </si>
-  <si>
     <t>exam slot</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
   </si>
   <si>
     <t>MP6</t>
-  </si>
-  <si>
-    <t>final presentations (FP)</t>
   </si>
   <si>
     <t>technology topic</t>
@@ -257,6 +251,12 @@
   </si>
   <si>
     <t>EPR3</t>
+  </si>
+  <si>
+    <t>implementing tasks</t>
+  </si>
+  <si>
+    <t>final presentations and report (FP)</t>
   </si>
 </sst>
 </file>
@@ -692,8 +692,8 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,19 +718,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -744,15 +744,15 @@
         <v>44587</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -766,15 +766,12 @@
         <f>C2+7</f>
         <v>44594</v>
       </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -789,17 +786,17 @@
         <v>44601</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -813,14 +810,16 @@
         <f t="shared" si="0"/>
         <v>44608</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
       <c r="E5" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -835,17 +834,17 @@
         <v>44615</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -861,12 +860,12 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="13"/>
       <c r="H7" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,11 +880,11 @@
         <v>44629</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="18" t="s">
@@ -907,13 +906,13 @@
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="10">
         <v>44642</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
@@ -931,13 +930,13 @@
         <v>44643</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="3"/>
@@ -954,14 +953,14 @@
         <v>44650</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -977,13 +976,13 @@
         <v>44657</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="3"/>
@@ -1003,7 +1002,7 @@
       <c r="E14" s="23"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -1019,11 +1018,11 @@
         <v>44671</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="3"/>
@@ -1043,7 +1042,7 @@
       <c r="E16" s="23"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -1059,7 +1058,7 @@
         <v>44685</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="13"/>
@@ -1068,16 +1067,16 @@
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2">
         <v>44698</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\lossd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F9DBD2-78A5-430C-8369-5229DB346F9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A937CC-C989-4553-99DD-82BCE1B51ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>class</t>
   </si>
@@ -67,15 +67,6 @@
   </si>
   <si>
     <t>introduction</t>
-  </si>
-  <si>
-    <t>OSS overview</t>
-  </si>
-  <si>
-    <t>OSS communications</t>
-  </si>
-  <si>
-    <t>diversity in computing</t>
   </si>
   <si>
     <t>required evening event: 5pm lecture by Luis von Ahn, CEO of Duolingo</t>
@@ -258,12 +249,101 @@
   <si>
     <t>final presentations and report (FP)</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OSS communications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+OSS overview</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>diversity in computing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+OSS communications</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OSS overview</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>diversity in computing</t>
+    </r>
+  </si>
+  <si>
+    <t>Thu,
+7pm</t>
+  </si>
+  <si>
+    <t>required evening event: 7pm fireside chat with Reshma Saujani, founder and CEO of Girls Who Code. Info on Detailed Schedule page.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +388,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -344,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -407,6 +502,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -689,11 +793,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,16 +825,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -747,12 +851,12 @@
         <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -767,14 +871,14 @@
         <v>44594</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -782,313 +886,322 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C17" si="0">C3+7</f>
+        <f t="shared" ref="C4:C18" si="0">C3+7</f>
         <v>44601</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>44608</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="21" t="s">
-        <v>41</v>
-      </c>
+        <v>44602</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2">
+        <f>C4+7</f>
+        <v>44608</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>44615</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="D7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>44622</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="D8" s="4"/>
+      <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>44629</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="18" t="s">
+      <c r="D9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="10">
         <v>44642</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44643</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="3"/>
+      <c r="D11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2">
+        <v>44643</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>44650</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>44657</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>44664</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="D15" s="2"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>44671</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>44678</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="D17" s="2"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>44685</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <v>44698</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="D19" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
@@ -1265,12 +1378,20 @@
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
     </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="E13:E17"/>
+  <mergeCells count="5">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\lossd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A937CC-C989-4553-99DD-82BCE1B51ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3AA98D-4AEB-4CF0-982A-A73EAF8F6668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>class</t>
   </si>
@@ -178,9 +178,6 @@
     <t>[college farm visit]</t>
   </si>
   <si>
-    <t>[Matt Steiman visit]</t>
-  </si>
-  <si>
     <t>FDS2, due 1/31</t>
   </si>
   <si>
@@ -337,13 +334,49 @@
   </si>
   <si>
     <t>required evening event: 7pm fireside chat with Reshma Saujani, founder and CEO of Girls Who Code. Info on Detailed Schedule page.</t>
+  </si>
+  <si>
+    <t>ungraded: first draft of your Epic</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Matt Steiman visit to discuss Epics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Duolingo discussion next week)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +436,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -439,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -511,6 +551,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -796,8 +839,8 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +874,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>32</v>
@@ -856,7 +899,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -875,7 +918,7 @@
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -890,7 +933,7 @@
         <v>44601</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>29</v>
@@ -900,19 +943,19 @@
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2">
         <v>44602</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
@@ -939,7 +982,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -954,7 +997,7 @@
         <v>44615</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>27</v>
@@ -964,7 +1007,7 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -985,7 +1028,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="13"/>
       <c r="H8" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1000,7 +1043,7 @@
         <v>44629</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="13" t="s">
@@ -1039,7 +1082,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="54" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -1050,7 +1093,7 @@
         <v>44643</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>6</v>
@@ -1058,7 +1101,9 @@
       <c r="F12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1072,15 +1117,15 @@
         <f t="shared" si="0"/>
         <v>44650</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -1099,7 +1144,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>23</v>
@@ -1122,7 +1167,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -1162,7 +1207,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -1196,7 +1241,7 @@
         <v>44698</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
